--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-01T16:30:13+00:00</t>
+    <t>2025-05-02T13:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -248,7 +248,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>PatientId.CX1</t>
+    <t>PatientId.1</t>
   </si>
   <si>
     <t>1</t>
@@ -261,7 +261,7 @@
     <t>Identifiant du patient, en l’occurrence, le matricule INS du patient tel que défini dans le cadre juridique</t>
   </si>
   <si>
-    <t>PatientId.CX4</t>
+    <t>PatientId.4</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -271,7 +271,7 @@
     <t>Identifiant de l’autorité d’affectation de l’INS utilisé.</t>
   </si>
   <si>
-    <t>PatientId.CX5</t>
+    <t>PatientId.5</t>
   </si>
   <si>
     <t xml:space="preserve"> 'NH' pour un maticule INS tel que défini dans le cadre juridique</t>
@@ -588,8 +588,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.57421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.57421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.3984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -619,7 +619,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="11.57421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.91015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:14+00:00</t>
+    <t>2025-05-02T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:57+00:00</t>
+    <t>2025-05-02T14:15:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:15:44+00:00</t>
+    <t>2025-05-02T17:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T17:24:18+00:00</t>
+    <t>2025-05-03T11:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -248,7 +248,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>PatientId.1</t>
+    <t>PatientId.CX1</t>
   </si>
   <si>
     <t>1</t>
@@ -261,7 +261,7 @@
     <t>Identifiant du patient, en l’occurrence, le matricule INS du patient tel que défini dans le cadre juridique</t>
   </si>
   <si>
-    <t>PatientId.4</t>
+    <t>PatientId.CX4</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -271,7 +271,7 @@
     <t>Identifiant de l’autorité d’affectation de l’INS utilisé.</t>
   </si>
   <si>
-    <t>PatientId.5</t>
+    <t>PatientId.CX5</t>
   </si>
   <si>
     <t xml:space="preserve"> 'NH' pour un maticule INS tel que défini dans le cadre juridique</t>
@@ -588,8 +588,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.57421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.57421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -619,7 +619,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.91015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="11.57421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T11:17:55+00:00</t>
+    <t>2025-05-03T14:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:02:53+00:00</t>
+    <t>2025-05-03T14:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:33:40+00:00</t>
+    <t>2025-05-03T15:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-PatientId.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="87">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -269,6 +269,11 @@
   </si>
   <si>
     <t>Identifiant de l’autorité d’affectation de l’INS utilisé.</t>
+  </si>
+  <si>
+    <t>Cet identifiant, au format HL7 v.2.5 est constitué de trois sous-composants qui prennent les valeurs suivantes.
+|Valeur de Namespace ID (IS)| Valeur de Universal ID (ST)| Valeur de Universal ID type (ID)
+Vide, pas de valeur |OID de l’autorité d’affectation de l’INS utilisé Valeur de Universal ID type (ID) ISO prise dans la liste des OID des autorités d'affectation des INS | ISO</t>
   </si>
   <si>
     <t>PatientId.CX5</t>
@@ -969,7 +974,7 @@
         <v>83</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1037,10 +1042,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1066,10 +1071,10 @@
         <v>82</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1120,7 +1125,7 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
